--- a/Code/Results/Cases/Case_5_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.78817494149297</v>
+        <v>11.17622703276409</v>
       </c>
       <c r="C2">
-        <v>13.90036533963631</v>
+        <v>8.448252368653622</v>
       </c>
       <c r="D2">
-        <v>3.7658759372007</v>
+        <v>3.852438476026343</v>
       </c>
       <c r="E2">
-        <v>12.178601774493</v>
+        <v>11.87252651299297</v>
       </c>
       <c r="F2">
-        <v>18.39704517687217</v>
+        <v>20.85295102378897</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>11.05109193084152</v>
+        <v>17.4299331331869</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.47006266991372</v>
+        <v>14.15154519726645</v>
       </c>
       <c r="N2">
-        <v>10.99484753044521</v>
+        <v>16.33347107265294</v>
       </c>
       <c r="O2">
-        <v>13.96850521508413</v>
+        <v>18.4545401647835</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.59033879067107</v>
+        <v>10.61141056364527</v>
       </c>
       <c r="C3">
-        <v>13.06659209268053</v>
+        <v>8.010231711293601</v>
       </c>
       <c r="D3">
-        <v>3.633963324776763</v>
+        <v>3.805593125082941</v>
       </c>
       <c r="E3">
-        <v>11.52044752792806</v>
+        <v>11.75994438436761</v>
       </c>
       <c r="F3">
-        <v>17.6276513498298</v>
+        <v>20.77413510526166</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>11.09666755089467</v>
+        <v>17.51116580657236</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.33854979816479</v>
+        <v>13.87218533177993</v>
       </c>
       <c r="N3">
-        <v>11.15010476201612</v>
+        <v>16.38461062119998</v>
       </c>
       <c r="O3">
-        <v>13.59368678949058</v>
+        <v>18.46272471924573</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.81258717403024</v>
+        <v>10.24956465618201</v>
       </c>
       <c r="C4">
-        <v>12.52718020610497</v>
+        <v>7.727085927984437</v>
       </c>
       <c r="D4">
-        <v>3.550056869369868</v>
+        <v>3.776170009103248</v>
       </c>
       <c r="E4">
-        <v>11.11157958153521</v>
+        <v>11.69489938987268</v>
       </c>
       <c r="F4">
-        <v>17.15789902614697</v>
+        <v>20.73284152840582</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>11.13833507893575</v>
+        <v>17.56551027831303</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.60632385978382</v>
+        <v>13.70101718267319</v>
       </c>
       <c r="N4">
-        <v>11.24870075344506</v>
+        <v>16.41776382012985</v>
       </c>
       <c r="O4">
-        <v>13.37423634481006</v>
+        <v>18.47334203089336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.48500574076323</v>
+        <v>10.09849470632515</v>
       </c>
       <c r="C5">
-        <v>12.30049320656395</v>
+        <v>7.608197006260048</v>
       </c>
       <c r="D5">
-        <v>3.515163601875197</v>
+        <v>3.76402063996745</v>
       </c>
       <c r="E5">
-        <v>10.94396868269264</v>
+        <v>11.66944737282193</v>
       </c>
       <c r="F5">
-        <v>16.96742770256242</v>
+        <v>20.71781252560335</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>11.15857266947807</v>
+        <v>17.5887757252453</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.2984775400127</v>
+        <v>13.63145501701302</v>
       </c>
       <c r="N5">
-        <v>11.28969926903336</v>
+        <v>16.43171584331053</v>
       </c>
       <c r="O5">
-        <v>13.28755450238749</v>
+        <v>18.4790719967259</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42996832044032</v>
+        <v>10.07319683661221</v>
       </c>
       <c r="C6">
-        <v>12.26243833662958</v>
+        <v>7.588246105740095</v>
       </c>
       <c r="D6">
-        <v>3.509328270695729</v>
+        <v>3.761993829930942</v>
       </c>
       <c r="E6">
-        <v>10.91608366835563</v>
+        <v>11.66528553646779</v>
       </c>
       <c r="F6">
-        <v>16.93586673796264</v>
+        <v>20.71542592454844</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>11.16212456670101</v>
+        <v>17.59270644972904</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.24678784754528</v>
+        <v>13.61991870714803</v>
       </c>
       <c r="N6">
-        <v>11.29655652664931</v>
+        <v>16.43405927928135</v>
       </c>
       <c r="O6">
-        <v>13.27332841422943</v>
+        <v>18.48010810958367</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.80821238788801</v>
+        <v>10.24754166594819</v>
       </c>
       <c r="C7">
-        <v>12.52415079126598</v>
+        <v>7.725496644043808</v>
       </c>
       <c r="D7">
-        <v>3.549589079494556</v>
+        <v>3.776006794119042</v>
       </c>
       <c r="E7">
-        <v>11.10932285039799</v>
+        <v>11.69455183079312</v>
       </c>
       <c r="F7">
-        <v>17.15532599186934</v>
+        <v>20.73263154478496</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>11.13859505961862</v>
+        <v>17.56581951583456</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.60221047091308</v>
+        <v>13.70007813978186</v>
       </c>
       <c r="N7">
-        <v>11.24925035575746</v>
+        <v>16.41795019180918</v>
       </c>
       <c r="O7">
-        <v>13.37305613468051</v>
+        <v>18.47341362966682</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.38392482918164</v>
+        <v>10.9846937104618</v>
       </c>
       <c r="C8">
-        <v>13.61859806975309</v>
+        <v>8.300205396035716</v>
       </c>
       <c r="D8">
-        <v>3.721014506199353</v>
+        <v>3.836427139027142</v>
       </c>
       <c r="E8">
-        <v>11.95276743105195</v>
+        <v>11.83287889940988</v>
       </c>
       <c r="F8">
-        <v>18.13137124415514</v>
+        <v>20.82431050332252</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>11.06385534010697</v>
+        <v>17.45701275459138</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.08766909750649</v>
+        <v>14.05520650660509</v>
       </c>
       <c r="N8">
-        <v>11.04770068080753</v>
+        <v>16.35074065412253</v>
       </c>
       <c r="O8">
-        <v>13.83708642286761</v>
+        <v>18.45620017442541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.1395814904644</v>
+        <v>12.3048017799985</v>
       </c>
       <c r="C9">
-        <v>15.54612645407903</v>
+        <v>9.312272240193963</v>
       </c>
       <c r="D9">
-        <v>4.032878094575885</v>
+        <v>3.949389528930688</v>
       </c>
       <c r="E9">
-        <v>13.56210843914209</v>
+        <v>12.13515722279186</v>
       </c>
       <c r="F9">
-        <v>20.05528178743281</v>
+        <v>21.05971489511903</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>11.03414396765456</v>
+        <v>17.27925375878512</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.70556981735693</v>
+        <v>14.75018965945458</v>
       </c>
       <c r="N9">
-        <v>10.67852298141518</v>
+        <v>16.23281207741392</v>
       </c>
       <c r="O9">
-        <v>14.82902797690185</v>
+        <v>18.46689838648336</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.96265222163997</v>
+        <v>13.19169841628281</v>
       </c>
       <c r="C10">
-        <v>16.82905463186616</v>
+        <v>9.983448307774093</v>
       </c>
       <c r="D10">
-        <v>4.245822410533703</v>
+        <v>4.028648332276102</v>
       </c>
       <c r="E10">
-        <v>14.86068098142741</v>
+        <v>12.37417730824797</v>
       </c>
       <c r="F10">
-        <v>21.46214894351386</v>
+        <v>21.26543920845316</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>11.09486678840773</v>
+        <v>17.17058806886872</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.4529610539143</v>
+        <v>15.25440062742455</v>
       </c>
       <c r="N10">
-        <v>10.42346475409705</v>
+        <v>16.15456584690864</v>
       </c>
       <c r="O10">
-        <v>15.6039141706197</v>
+        <v>18.50191149302952</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.74891846241885</v>
+        <v>13.57615563574218</v>
       </c>
       <c r="C11">
-        <v>17.38401790816021</v>
+        <v>10.27273903397841</v>
       </c>
       <c r="D11">
-        <v>4.338955322234838</v>
+        <v>4.063820199713505</v>
       </c>
       <c r="E11">
-        <v>15.46245363077885</v>
+        <v>12.48613609818137</v>
       </c>
       <c r="F11">
-        <v>22.09875557289451</v>
+        <v>21.36584941934503</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>11.14280047877794</v>
+        <v>17.12596383555277</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.21072312356342</v>
+        <v>15.48129520752808</v>
       </c>
       <c r="N11">
-        <v>10.31104800694079</v>
+        <v>16.12078046575501</v>
       </c>
       <c r="O11">
-        <v>15.96567838332038</v>
+        <v>18.52372566244056</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.04052679515396</v>
+        <v>13.71894466047142</v>
       </c>
       <c r="C12">
-        <v>17.59008056208558</v>
+        <v>10.37996137389608</v>
       </c>
       <c r="D12">
-        <v>4.373669620633789</v>
+        <v>4.077005891149779</v>
       </c>
       <c r="E12">
-        <v>15.68735676035683</v>
+        <v>12.52895625092649</v>
       </c>
       <c r="F12">
-        <v>22.33921732842771</v>
+        <v>21.40482522645551</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>11.16406215407351</v>
+        <v>17.10976119223364</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.49242404719422</v>
+        <v>15.56677328528751</v>
       </c>
       <c r="N12">
-        <v>10.26901034577402</v>
+        <v>16.10824611085542</v>
       </c>
       <c r="O12">
-        <v>16.10394656126853</v>
+        <v>18.53282991719347</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.97799552674344</v>
+        <v>13.6883177705603</v>
       </c>
       <c r="C13">
-        <v>17.54588262308576</v>
+        <v>10.35697283830766</v>
       </c>
       <c r="D13">
-        <v>4.366218100806854</v>
+        <v>4.074172132284549</v>
       </c>
       <c r="E13">
-        <v>15.63905025287361</v>
+        <v>12.51971596567685</v>
       </c>
       <c r="F13">
-        <v>22.28745814550942</v>
+        <v>21.39638920126546</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>11.1593417932865</v>
+        <v>17.11321971927098</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.43198650263076</v>
+        <v>15.54838502997225</v>
       </c>
       <c r="N13">
-        <v>10.27804000352562</v>
+        <v>16.11093408131483</v>
       </c>
       <c r="O13">
-        <v>16.07411206645281</v>
+        <v>18.53083168487971</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.77303182772199</v>
+        <v>13.58795935021578</v>
       </c>
       <c r="C14">
-        <v>17.40105257555714</v>
+        <v>10.28160699237813</v>
       </c>
       <c r="D14">
-        <v>4.341822455467915</v>
+        <v>4.064907696752655</v>
       </c>
       <c r="E14">
-        <v>15.48101548835785</v>
+        <v>12.48965067785505</v>
       </c>
       <c r="F14">
-        <v>22.11855124439547</v>
+        <v>21.36903706267555</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>11.14448629269687</v>
+        <v>17.12461687010614</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.23400342345155</v>
+        <v>15.48833687491132</v>
       </c>
       <c r="N14">
-        <v>10.30757879386754</v>
+        <v>16.11974406144148</v>
       </c>
       <c r="O14">
-        <v>15.97702850153098</v>
+        <v>18.52445778566263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.64668869422173</v>
+        <v>13.52612100863873</v>
       </c>
       <c r="C15">
-        <v>17.31180838334977</v>
+        <v>10.23513982666652</v>
       </c>
       <c r="D15">
-        <v>4.326806959594846</v>
+        <v>4.059215447736457</v>
       </c>
       <c r="E15">
-        <v>15.38383070658676</v>
+        <v>12.4712888026315</v>
       </c>
       <c r="F15">
-        <v>22.01500881516071</v>
+        <v>21.35240625849981</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>11.1357974323491</v>
+        <v>17.1316886624849</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.11205265378865</v>
+        <v>15.4514956113307</v>
       </c>
       <c r="N15">
-        <v>10.32574188918464</v>
+        <v>16.12517419363795</v>
       </c>
       <c r="O15">
-        <v>15.91772669234028</v>
+        <v>18.52066336239815</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.91040625656717</v>
+        <v>13.16618513648154</v>
       </c>
       <c r="C16">
-        <v>16.79221235468761</v>
+        <v>9.964218021207701</v>
       </c>
       <c r="D16">
-        <v>4.239659359086135</v>
+        <v>4.026331465215085</v>
       </c>
       <c r="E16">
-        <v>14.82093106978616</v>
+        <v>12.36692205285463</v>
       </c>
       <c r="F16">
-        <v>21.42046597752606</v>
+        <v>21.2590120910997</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>11.09215925547369</v>
+        <v>17.17360147919116</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.40269999467695</v>
+        <v>15.23951527139815</v>
       </c>
       <c r="N16">
-        <v>10.43088514397282</v>
+        <v>16.15681014439126</v>
       </c>
       <c r="O16">
-        <v>15.58045340135387</v>
+        <v>18.50060412554834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.44773196408292</v>
+        <v>12.94046039803226</v>
       </c>
       <c r="C17">
-        <v>16.46613811260839</v>
+        <v>9.793894094314936</v>
       </c>
       <c r="D17">
-        <v>4.185228068668715</v>
+        <v>4.005927538100794</v>
       </c>
       <c r="E17">
-        <v>14.47018902546979</v>
+        <v>12.30369461362844</v>
       </c>
       <c r="F17">
-        <v>21.05476930337059</v>
+        <v>21.20344607562665</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>11.07072744067009</v>
+        <v>17.2005481295515</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.95808708633865</v>
+        <v>15.10877572963395</v>
       </c>
       <c r="N17">
-        <v>10.49632014927043</v>
+        <v>16.17668063482697</v>
       </c>
       <c r="O17">
-        <v>15.37587673776536</v>
+        <v>18.48980448738361</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.17755726151988</v>
+        <v>12.80884445391968</v>
       </c>
       <c r="C18">
-        <v>16.27589009770881</v>
+        <v>9.694420261452674</v>
       </c>
       <c r="D18">
-        <v>4.153569708747593</v>
+        <v>3.994108943174727</v>
       </c>
       <c r="E18">
-        <v>14.26642472247904</v>
+        <v>12.26763410885659</v>
       </c>
       <c r="F18">
-        <v>20.84411667156517</v>
+        <v>21.1721302596117</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>11.06030114013689</v>
+        <v>17.2164994667725</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.69885605296073</v>
+        <v>15.03334984215863</v>
       </c>
       <c r="N18">
-        <v>10.53429553122544</v>
+        <v>16.18827994983419</v>
       </c>
       <c r="O18">
-        <v>15.2590844912895</v>
+        <v>18.48414712445035</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.08538234570306</v>
+        <v>12.76397716079547</v>
       </c>
       <c r="C19">
-        <v>16.21101111671387</v>
+        <v>9.660481841790984</v>
       </c>
       <c r="D19">
-        <v>4.142790983698602</v>
+        <v>3.990093339696112</v>
       </c>
       <c r="E19">
-        <v>14.19708244335716</v>
+        <v>12.25547845482135</v>
       </c>
       <c r="F19">
-        <v>20.77274370955028</v>
+        <v>21.16163876186655</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>11.05709154814394</v>
+        <v>17.22197787768594</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.6104808246141</v>
+        <v>15.00777548948636</v>
       </c>
       <c r="N19">
-        <v>10.54721120269487</v>
+        <v>16.19223655629738</v>
       </c>
       <c r="O19">
-        <v>15.21969278359598</v>
+        <v>18.48232690742185</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.49740388366557</v>
+        <v>12.96467443719921</v>
       </c>
       <c r="C20">
-        <v>16.50112839372403</v>
+        <v>9.812181606562135</v>
       </c>
       <c r="D20">
-        <v>4.191058813866762</v>
+        <v>4.00810818499475</v>
       </c>
       <c r="E20">
-        <v>14.50773513067606</v>
+        <v>12.31039387674396</v>
       </c>
       <c r="F20">
-        <v>21.0937317792926</v>
+        <v>21.20929469352026</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>11.07281078451108</v>
+        <v>17.19763276726139</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.00577863282711</v>
+        <v>15.12271741080289</v>
       </c>
       <c r="N20">
-        <v>10.48931932238757</v>
+        <v>16.1745477635585</v>
       </c>
       <c r="O20">
-        <v>15.39756417214954</v>
+        <v>18.49089677560295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.83340060567549</v>
+        <v>13.61751340535383</v>
       </c>
       <c r="C21">
-        <v>17.44370339316614</v>
+        <v>10.30380702810201</v>
       </c>
       <c r="D21">
-        <v>4.349003172973809</v>
+        <v>4.067632546655165</v>
       </c>
       <c r="E21">
-        <v>15.52751392141473</v>
+        <v>12.49847040478008</v>
       </c>
       <c r="F21">
-        <v>22.16818056594122</v>
+        <v>21.37704543452549</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>11.14876382328937</v>
+        <v>17.12125033972368</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.29229747240657</v>
+        <v>15.50598713183449</v>
       </c>
       <c r="N21">
-        <v>10.29888797535661</v>
+        <v>16.11714932139387</v>
       </c>
       <c r="O21">
-        <v>16.00551006388348</v>
+        <v>18.52630708402744</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.67083155992847</v>
+        <v>14.02785902395909</v>
       </c>
       <c r="C22">
-        <v>18.03591108327878</v>
+        <v>10.61155010428534</v>
       </c>
       <c r="D22">
-        <v>4.448999333186892</v>
+        <v>4.105756505171667</v>
       </c>
       <c r="E22">
-        <v>16.17671909536014</v>
+        <v>12.62384034453096</v>
       </c>
       <c r="F22">
-        <v>22.86682372668845</v>
+        <v>21.49221814268589</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>11.21661544127342</v>
+        <v>17.07538631251707</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.1025773867157</v>
+        <v>15.75386339120506</v>
       </c>
       <c r="N22">
-        <v>10.17753995459458</v>
+        <v>16.08114799037181</v>
       </c>
       <c r="O22">
-        <v>16.41025715271287</v>
+        <v>18.55436545671366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.22712649786111</v>
+        <v>13.810361676519</v>
       </c>
       <c r="C23">
-        <v>17.72200629773828</v>
+        <v>10.44854833299804</v>
       </c>
       <c r="D23">
-        <v>4.395929604823568</v>
+        <v>4.085482232387184</v>
       </c>
       <c r="E23">
-        <v>15.83176681799462</v>
+        <v>12.55671725300024</v>
       </c>
       <c r="F23">
-        <v>22.49430224413064</v>
+        <v>21.43025163653849</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>11.17867444380567</v>
+        <v>17.09949229214143</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.6728765539861</v>
+        <v>15.62183344261981</v>
       </c>
       <c r="N23">
-        <v>10.24201603861252</v>
+        <v>16.10022447652584</v>
       </c>
       <c r="O23">
-        <v>16.19357277326228</v>
+        <v>18.53894158636497</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47496022383964</v>
+        <v>12.9537330080197</v>
       </c>
       <c r="C24">
-        <v>16.4853179600312</v>
+        <v>9.803918655917467</v>
       </c>
       <c r="D24">
-        <v>4.188423869898425</v>
+        <v>4.007122588489841</v>
       </c>
       <c r="E24">
-        <v>14.49076714181692</v>
+        <v>12.30736423416208</v>
       </c>
       <c r="F24">
-        <v>21.07611810748982</v>
+        <v>21.20664856931424</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>11.07186301628947</v>
+        <v>17.19894937198984</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.98422855818571</v>
+        <v>15.11641518613716</v>
       </c>
       <c r="N24">
-        <v>10.49248328853079</v>
+        <v>16.175511487894</v>
       </c>
       <c r="O24">
-        <v>15.38775671952577</v>
+        <v>18.49040123400422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.42968917171793</v>
+        <v>11.96185823515197</v>
       </c>
       <c r="C25">
-        <v>15.04812725065637</v>
+        <v>9.05105970946682</v>
       </c>
       <c r="D25">
-        <v>3.951265726951211</v>
+        <v>3.91946015096175</v>
       </c>
       <c r="E25">
-        <v>13.13232653094924</v>
+        <v>12.05025863478769</v>
       </c>
       <c r="F25">
-        <v>19.53518906921585</v>
+        <v>20.9901840011886</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>11.02850068966326</v>
+        <v>17.32350665063144</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.02858264458695</v>
+        <v>14.56291480160231</v>
       </c>
       <c r="N25">
-        <v>10.7755822472008</v>
+        <v>16.26323629432497</v>
       </c>
       <c r="O25">
-        <v>14.55230619845256</v>
+        <v>18.45923558686932</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.17622703276409</v>
+        <v>18.78817494149294</v>
       </c>
       <c r="C2">
-        <v>8.448252368653622</v>
+        <v>13.90036533963625</v>
       </c>
       <c r="D2">
-        <v>3.852438476026343</v>
+        <v>3.765875937200795</v>
       </c>
       <c r="E2">
-        <v>11.87252651299297</v>
+        <v>12.178601774493</v>
       </c>
       <c r="F2">
-        <v>20.85295102378897</v>
+        <v>18.39704517687218</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>17.4299331331869</v>
+        <v>11.0510919308416</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.15154519726645</v>
+        <v>17.47006266991368</v>
       </c>
       <c r="N2">
-        <v>16.33347107265294</v>
+        <v>10.99484753044524</v>
       </c>
       <c r="O2">
-        <v>18.4545401647835</v>
+        <v>13.96850521508418</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.61141056364527</v>
+        <v>17.5903387906711</v>
       </c>
       <c r="C3">
-        <v>8.010231711293601</v>
+        <v>13.06659209268043</v>
       </c>
       <c r="D3">
-        <v>3.805593125082941</v>
+        <v>3.633963324776751</v>
       </c>
       <c r="E3">
-        <v>11.75994438436761</v>
+        <v>11.52044752792805</v>
       </c>
       <c r="F3">
-        <v>20.77413510526166</v>
+        <v>17.62765134982988</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>17.51116580657236</v>
+        <v>11.09666755089476</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.87218533177993</v>
+        <v>16.33854979816477</v>
       </c>
       <c r="N3">
-        <v>16.38461062119998</v>
+        <v>11.15010476201621</v>
       </c>
       <c r="O3">
-        <v>18.46272471924573</v>
+        <v>13.5936867894907</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.24956465618201</v>
+        <v>16.81258717403023</v>
       </c>
       <c r="C4">
-        <v>7.727085927984437</v>
+        <v>12.52718020610502</v>
       </c>
       <c r="D4">
-        <v>3.776170009103248</v>
+        <v>3.550056869370018</v>
       </c>
       <c r="E4">
-        <v>11.69489938987268</v>
+        <v>11.11157958153522</v>
       </c>
       <c r="F4">
-        <v>20.73284152840582</v>
+        <v>17.157899026147</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>17.56551027831303</v>
+        <v>11.13833507893585</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.70101718267319</v>
+        <v>15.6063238597838</v>
       </c>
       <c r="N4">
-        <v>16.41776382012985</v>
+        <v>11.2487007534451</v>
       </c>
       <c r="O4">
-        <v>18.47334203089336</v>
+        <v>13.37423634481015</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.09849470632515</v>
+        <v>16.48500574076319</v>
       </c>
       <c r="C5">
-        <v>7.608197006260048</v>
+        <v>12.300493206564</v>
       </c>
       <c r="D5">
-        <v>3.76402063996745</v>
+        <v>3.515163601875186</v>
       </c>
       <c r="E5">
-        <v>11.66944737282193</v>
+        <v>10.94396868269263</v>
       </c>
       <c r="F5">
-        <v>20.71781252560335</v>
+        <v>16.96742770256244</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>17.5887757252453</v>
+        <v>11.15857266947809</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.63145501701302</v>
+        <v>15.29847754001268</v>
       </c>
       <c r="N5">
-        <v>16.43171584331053</v>
+        <v>11.28969926903332</v>
       </c>
       <c r="O5">
-        <v>18.4790719967259</v>
+        <v>13.28755450238751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.07319683661221</v>
+        <v>16.42996832044032</v>
       </c>
       <c r="C6">
-        <v>7.588246105740095</v>
+        <v>12.26243833662971</v>
       </c>
       <c r="D6">
-        <v>3.761993829930942</v>
+        <v>3.509328270695764</v>
       </c>
       <c r="E6">
-        <v>11.66528553646779</v>
+        <v>10.91608366835561</v>
       </c>
       <c r="F6">
-        <v>20.71542592454844</v>
+        <v>16.93586673796256</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>17.59270644972904</v>
+        <v>11.16212456670097</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.61991870714803</v>
+        <v>15.24678784754532</v>
       </c>
       <c r="N6">
-        <v>16.43405927928135</v>
+        <v>11.29655652664927</v>
       </c>
       <c r="O6">
-        <v>18.48010810958367</v>
+        <v>13.27332841422938</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.24754166594819</v>
+        <v>16.80821238788796</v>
       </c>
       <c r="C7">
-        <v>7.725496644043808</v>
+        <v>12.52415079126605</v>
       </c>
       <c r="D7">
-        <v>3.776006794119042</v>
+        <v>3.549589079494454</v>
       </c>
       <c r="E7">
-        <v>11.69455183079312</v>
+        <v>11.10932285039803</v>
       </c>
       <c r="F7">
-        <v>20.73263154478496</v>
+        <v>17.15532599186936</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>17.56581951583456</v>
+        <v>11.13859505961863</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.70007813978186</v>
+        <v>15.60221047091304</v>
       </c>
       <c r="N7">
-        <v>16.41795019180918</v>
+        <v>11.24925035575742</v>
       </c>
       <c r="O7">
-        <v>18.47341362966682</v>
+        <v>13.37305613468049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.9846937104618</v>
+        <v>18.38392482918169</v>
       </c>
       <c r="C8">
-        <v>8.300205396035716</v>
+        <v>13.61859806975318</v>
       </c>
       <c r="D8">
-        <v>3.836427139027142</v>
+        <v>3.721014506199347</v>
       </c>
       <c r="E8">
-        <v>11.83287889940988</v>
+        <v>11.95276743105195</v>
       </c>
       <c r="F8">
-        <v>20.82431050332252</v>
+        <v>18.13137124415507</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>17.45701275459138</v>
+        <v>11.06385534010684</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.05520650660509</v>
+        <v>17.08766909750651</v>
       </c>
       <c r="N8">
-        <v>16.35074065412253</v>
+        <v>11.04770068080743</v>
       </c>
       <c r="O8">
-        <v>18.45620017442541</v>
+        <v>13.83708642286752</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.3048017799985</v>
+        <v>21.13958149046436</v>
       </c>
       <c r="C9">
-        <v>9.312272240193963</v>
+        <v>15.54612645407907</v>
       </c>
       <c r="D9">
-        <v>3.949389528930688</v>
+        <v>4.032878094575969</v>
       </c>
       <c r="E9">
-        <v>12.13515722279186</v>
+        <v>13.56210843914208</v>
       </c>
       <c r="F9">
-        <v>21.05971489511903</v>
+        <v>20.05528178743288</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>17.27925375878512</v>
+        <v>11.03414396765466</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.75018965945458</v>
+        <v>19.70556981735692</v>
       </c>
       <c r="N9">
-        <v>16.23281207741392</v>
+        <v>10.67852298141521</v>
       </c>
       <c r="O9">
-        <v>18.46689838648336</v>
+        <v>14.82902797690192</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.19169841628281</v>
+        <v>22.96265222163989</v>
       </c>
       <c r="C10">
-        <v>9.983448307774093</v>
+        <v>16.82905463186628</v>
       </c>
       <c r="D10">
-        <v>4.028648332276102</v>
+        <v>4.245822410533799</v>
       </c>
       <c r="E10">
-        <v>12.37417730824797</v>
+        <v>14.86068098142741</v>
       </c>
       <c r="F10">
-        <v>21.26543920845316</v>
+        <v>21.46214894351387</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>17.17058806886872</v>
+        <v>11.09486678840786</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.25440062742455</v>
+        <v>21.4529610539143</v>
       </c>
       <c r="N10">
-        <v>16.15456584690864</v>
+        <v>10.42346475409711</v>
       </c>
       <c r="O10">
-        <v>18.50191149302952</v>
+        <v>15.60391417061976</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.57615563574218</v>
+        <v>23.74891846241883</v>
       </c>
       <c r="C11">
-        <v>10.27273903397841</v>
+        <v>17.38401790816034</v>
       </c>
       <c r="D11">
-        <v>4.063820199713505</v>
+        <v>4.338955322234818</v>
       </c>
       <c r="E11">
-        <v>12.48613609818137</v>
+        <v>15.46245363077884</v>
       </c>
       <c r="F11">
-        <v>21.36584941934503</v>
+        <v>22.09875557289454</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>17.12596383555277</v>
+        <v>11.14280047877796</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.48129520752808</v>
+        <v>22.21072312356342</v>
       </c>
       <c r="N11">
-        <v>16.12078046575501</v>
+        <v>10.31104800694079</v>
       </c>
       <c r="O11">
-        <v>18.52372566244056</v>
+        <v>15.96567838332041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.71894466047142</v>
+        <v>24.04052679515398</v>
       </c>
       <c r="C12">
-        <v>10.37996137389608</v>
+        <v>17.59008056208556</v>
       </c>
       <c r="D12">
-        <v>4.077005891149779</v>
+        <v>4.373669620633943</v>
       </c>
       <c r="E12">
-        <v>12.52895625092649</v>
+        <v>15.68735676035679</v>
       </c>
       <c r="F12">
-        <v>21.40482522645551</v>
+        <v>22.33921732842773</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>17.10976119223364</v>
+        <v>11.16406215407352</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.56677328528751</v>
+        <v>22.4924240471942</v>
       </c>
       <c r="N12">
-        <v>16.10824611085542</v>
+        <v>10.26901034577402</v>
       </c>
       <c r="O12">
-        <v>18.53282991719347</v>
+        <v>16.10394656126854</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.6883177705603</v>
+        <v>23.97799552674346</v>
       </c>
       <c r="C13">
-        <v>10.35697283830766</v>
+        <v>17.54588262308574</v>
       </c>
       <c r="D13">
-        <v>4.074172132284549</v>
+        <v>4.366218100806897</v>
       </c>
       <c r="E13">
-        <v>12.51971596567685</v>
+        <v>15.63905025287358</v>
       </c>
       <c r="F13">
-        <v>21.39638920126546</v>
+        <v>22.28745814550946</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>17.11321971927098</v>
+        <v>11.15934179328659</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.54838502997225</v>
+        <v>22.43198650263075</v>
       </c>
       <c r="N13">
-        <v>16.11093408131483</v>
+        <v>10.27804000352564</v>
       </c>
       <c r="O13">
-        <v>18.53083168487971</v>
+        <v>16.07411206645287</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.58795935021578</v>
+        <v>23.77303182772201</v>
       </c>
       <c r="C14">
-        <v>10.28160699237813</v>
+        <v>17.40105257555714</v>
       </c>
       <c r="D14">
-        <v>4.064907696752655</v>
+        <v>4.341822455467895</v>
       </c>
       <c r="E14">
-        <v>12.48965067785505</v>
+        <v>15.48101548835781</v>
       </c>
       <c r="F14">
-        <v>21.36903706267555</v>
+        <v>22.11855124439552</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>17.12461687010614</v>
+        <v>11.14448629269693</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.48833687491132</v>
+        <v>22.23400342345152</v>
       </c>
       <c r="N14">
-        <v>16.11974406144148</v>
+        <v>10.30757879386753</v>
       </c>
       <c r="O14">
-        <v>18.52445778566263</v>
+        <v>15.97702850153103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.52612100863873</v>
+        <v>23.64668869422173</v>
       </c>
       <c r="C15">
-        <v>10.23513982666652</v>
+        <v>17.3118083833498</v>
       </c>
       <c r="D15">
-        <v>4.059215447736457</v>
+        <v>4.326806959594846</v>
       </c>
       <c r="E15">
-        <v>12.4712888026315</v>
+        <v>15.38383070658673</v>
       </c>
       <c r="F15">
-        <v>21.35240625849981</v>
+        <v>22.01500881516071</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>17.1316886624849</v>
+        <v>11.13579743234912</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.4514956113307</v>
+        <v>22.11205265378861</v>
       </c>
       <c r="N15">
-        <v>16.12517419363795</v>
+        <v>10.32574188918464</v>
       </c>
       <c r="O15">
-        <v>18.52066336239815</v>
+        <v>15.9177266923403</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.16618513648154</v>
+        <v>22.91040625656721</v>
       </c>
       <c r="C16">
-        <v>9.964218021207701</v>
+        <v>16.7922123546876</v>
       </c>
       <c r="D16">
-        <v>4.026331465215085</v>
+        <v>4.239659359086172</v>
       </c>
       <c r="E16">
-        <v>12.36692205285463</v>
+        <v>14.82093106978615</v>
       </c>
       <c r="F16">
-        <v>21.2590120910997</v>
+        <v>21.42046597752608</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>17.17360147919116</v>
+        <v>11.09215925547378</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.23951527139815</v>
+        <v>21.40269999467694</v>
       </c>
       <c r="N16">
-        <v>16.15681014439126</v>
+        <v>10.43088514397288</v>
       </c>
       <c r="O16">
-        <v>18.50060412554834</v>
+        <v>15.58045340135391</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.94046039803226</v>
+        <v>22.44773196408292</v>
       </c>
       <c r="C17">
-        <v>9.793894094314936</v>
+        <v>16.4661381126083</v>
       </c>
       <c r="D17">
-        <v>4.005927538100794</v>
+        <v>4.185228068668582</v>
       </c>
       <c r="E17">
-        <v>12.30369461362844</v>
+        <v>14.47018902546977</v>
       </c>
       <c r="F17">
-        <v>21.20344607562665</v>
+        <v>21.05476930337066</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>17.2005481295515</v>
+        <v>11.07072744067014</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.10877572963395</v>
+        <v>20.95808708633861</v>
       </c>
       <c r="N17">
-        <v>16.17668063482697</v>
+        <v>10.49632014927045</v>
       </c>
       <c r="O17">
-        <v>18.48980448738361</v>
+        <v>15.37587673776543</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.80884445391968</v>
+        <v>22.17755726151989</v>
       </c>
       <c r="C18">
-        <v>9.694420261452674</v>
+        <v>16.27589009770879</v>
       </c>
       <c r="D18">
-        <v>3.994108943174727</v>
+        <v>4.153569708747593</v>
       </c>
       <c r="E18">
-        <v>12.26763410885659</v>
+        <v>14.26642472247897</v>
       </c>
       <c r="F18">
-        <v>21.1721302596117</v>
+        <v>20.8441166715652</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>17.2164994667725</v>
+        <v>11.06030114013695</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.03334984215863</v>
+        <v>20.69885605296067</v>
       </c>
       <c r="N18">
-        <v>16.18827994983419</v>
+        <v>10.53429553122553</v>
       </c>
       <c r="O18">
-        <v>18.48414712445035</v>
+        <v>15.25908449128953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.76397716079547</v>
+        <v>22.08538234570311</v>
       </c>
       <c r="C19">
-        <v>9.660481841790984</v>
+        <v>16.21101111671386</v>
       </c>
       <c r="D19">
-        <v>3.990093339696112</v>
+        <v>4.14279098369864</v>
       </c>
       <c r="E19">
-        <v>12.25547845482135</v>
+        <v>14.19708244335718</v>
       </c>
       <c r="F19">
-        <v>21.16163876186655</v>
+        <v>20.77274370955027</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>17.22197787768594</v>
+        <v>11.05709154814391</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.00777548948636</v>
+        <v>20.61048082461413</v>
       </c>
       <c r="N19">
-        <v>16.19223655629738</v>
+        <v>10.54721120269487</v>
       </c>
       <c r="O19">
-        <v>18.48232690742185</v>
+        <v>15.21969278359598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.96467443719921</v>
+        <v>22.49740388366556</v>
       </c>
       <c r="C20">
-        <v>9.812181606562135</v>
+        <v>16.50112839372408</v>
       </c>
       <c r="D20">
-        <v>4.00810818499475</v>
+        <v>4.191058813866755</v>
       </c>
       <c r="E20">
-        <v>12.31039387674396</v>
+        <v>14.50773513067603</v>
       </c>
       <c r="F20">
-        <v>21.20929469352026</v>
+        <v>21.09373177929258</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>17.19763276726139</v>
+        <v>11.0728107845111</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.12271741080289</v>
+        <v>21.00577863282711</v>
       </c>
       <c r="N20">
-        <v>16.1745477635585</v>
+        <v>10.48931932238764</v>
       </c>
       <c r="O20">
-        <v>18.49089677560295</v>
+        <v>15.39756417214952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.61751340535383</v>
+        <v>23.8334006056755</v>
       </c>
       <c r="C21">
-        <v>10.30380702810201</v>
+        <v>17.44370339316611</v>
       </c>
       <c r="D21">
-        <v>4.067632546655165</v>
+        <v>4.349003172973775</v>
       </c>
       <c r="E21">
-        <v>12.49847040478008</v>
+        <v>15.52751392141472</v>
       </c>
       <c r="F21">
-        <v>21.37704543452549</v>
+        <v>22.16818056594125</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>17.12125033972368</v>
+        <v>11.1487638232894</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.50598713183449</v>
+        <v>22.29229747240655</v>
       </c>
       <c r="N21">
-        <v>16.11714932139387</v>
+        <v>10.29888797535663</v>
       </c>
       <c r="O21">
-        <v>18.52630708402744</v>
+        <v>16.00551006388351</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.02785902395909</v>
+        <v>24.67083155992858</v>
       </c>
       <c r="C22">
-        <v>10.61155010428534</v>
+        <v>18.03591108327871</v>
       </c>
       <c r="D22">
-        <v>4.105756505171667</v>
+        <v>4.448999333186803</v>
       </c>
       <c r="E22">
-        <v>12.62384034453096</v>
+        <v>16.17671909536011</v>
       </c>
       <c r="F22">
-        <v>21.49221814268589</v>
+        <v>22.86682372668849</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>17.07538631251707</v>
+        <v>11.21661544127345</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.75386339120506</v>
+        <v>23.10257738671572</v>
       </c>
       <c r="N22">
-        <v>16.08114799037181</v>
+        <v>10.17753995459461</v>
       </c>
       <c r="O22">
-        <v>18.55436545671366</v>
+        <v>16.4102571527129</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.810361676519</v>
+        <v>24.22712649786119</v>
       </c>
       <c r="C23">
-        <v>10.44854833299804</v>
+        <v>17.72200629773831</v>
       </c>
       <c r="D23">
-        <v>4.085482232387184</v>
+        <v>4.395929604823567</v>
       </c>
       <c r="E23">
-        <v>12.55671725300024</v>
+        <v>15.83176681799461</v>
       </c>
       <c r="F23">
-        <v>21.43025163653849</v>
+        <v>22.49430224413065</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>17.09949229214143</v>
+        <v>11.17867444380561</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.62183344261981</v>
+        <v>22.67287655398614</v>
       </c>
       <c r="N23">
-        <v>16.10022447652584</v>
+        <v>10.24201603861245</v>
       </c>
       <c r="O23">
-        <v>18.53894158636497</v>
+        <v>16.19357277326226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.9537330080197</v>
+        <v>22.47496022383969</v>
       </c>
       <c r="C24">
-        <v>9.803918655917467</v>
+        <v>16.48531796003113</v>
       </c>
       <c r="D24">
-        <v>4.007122588489841</v>
+        <v>4.18842386989831</v>
       </c>
       <c r="E24">
-        <v>12.30736423416208</v>
+        <v>14.49076714181692</v>
       </c>
       <c r="F24">
-        <v>21.20664856931424</v>
+        <v>21.07611810748986</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>17.19894937198984</v>
+        <v>11.07186301628945</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.11641518613716</v>
+        <v>20.98422855818571</v>
       </c>
       <c r="N24">
-        <v>16.175511487894</v>
+        <v>10.49248328853074</v>
       </c>
       <c r="O24">
-        <v>18.49040123400422</v>
+        <v>15.38775671952578</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.96185823515197</v>
+        <v>20.42968917171802</v>
       </c>
       <c r="C25">
-        <v>9.05105970946682</v>
+        <v>15.04812725065636</v>
       </c>
       <c r="D25">
-        <v>3.91946015096175</v>
+        <v>3.951265726951273</v>
       </c>
       <c r="E25">
-        <v>12.05025863478769</v>
+        <v>13.13232653094924</v>
       </c>
       <c r="F25">
-        <v>20.9901840011886</v>
+        <v>19.5351890692158</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>17.32350665063144</v>
+        <v>11.02850068966316</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.56291480160231</v>
+        <v>19.02858264458699</v>
       </c>
       <c r="N25">
-        <v>16.26323629432497</v>
+        <v>10.7755822472007</v>
       </c>
       <c r="O25">
-        <v>18.45923558686932</v>
+        <v>14.55230619845252</v>
       </c>
     </row>
   </sheetData>
